--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C66D28D-EE21-40B9-8504-A36B11B93269}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AD26A-C33F-4DCB-B04D-A9D183931C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>STORED PROCEDURES</t>
   </si>
@@ -123,9 +123,6 @@
     <t>group table</t>
   </si>
   <si>
-    <t>store admins and mods</t>
-  </si>
-  <si>
     <t>(admin)edit group privacy</t>
   </si>
   <si>
@@ -177,30 +174,29 @@
     <t>% COMPLETE</t>
   </si>
   <si>
-    <t>20% COMPLETE</t>
-  </si>
-  <si>
     <t>add ui section my events</t>
   </si>
   <si>
     <t>place to see rsvp events</t>
+  </si>
+  <si>
+    <t>edit user password</t>
+  </si>
+  <si>
+    <t>23% COMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store admin and moderatorsId + add tbl group moderators </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,27 +397,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -747,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -758,77 +746,77 @@
     <col min="3" max="3" width="13.26171875" customWidth="1"/>
     <col min="4" max="4" width="14.41796875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.47265625" customWidth="1"/>
+    <col min="6" max="6" width="24.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -836,10 +824,10 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -847,430 +835,436 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="15"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="15"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="15"/>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="19"/>
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="37" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="21">
-        <f>14/35 * 100</f>
-        <v>40</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="A37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="19">
+        <f>16/33 * 100</f>
+        <v>48.484848484848484</v>
+      </c>
+      <c r="C37" s="19">
         <v>0</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>48</v>
+      <c r="D37" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54AD26A-C33F-4DCB-B04D-A9D183931C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE985B-403C-4006-950C-0CF4BB2E8CCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>STORED PROCEDURES</t>
   </si>
@@ -120,9 +120,6 @@
     <t>(admin)edit group name</t>
   </si>
   <si>
-    <t>group table</t>
-  </si>
-  <si>
     <t>(admin)edit group privacy</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
   </si>
   <si>
     <t>23% COMPLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store admin and moderatorsId + add tbl group moderators </t>
   </si>
 </sst>
 </file>
@@ -735,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -745,7 +739,7 @@
     <col min="2" max="2" width="18.05078125" customWidth="1"/>
     <col min="3" max="3" width="13.26171875" customWidth="1"/>
     <col min="4" max="4" width="14.41796875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="23.578125" customWidth="1"/>
     <col min="6" max="6" width="24.26171875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -899,12 +893,8 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="14"/>
@@ -950,10 +940,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -986,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="14"/>
@@ -1018,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="14"/>
@@ -1041,7 +1031,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1057,7 +1047,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1073,7 +1063,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
@@ -1089,7 +1079,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>15</v>
@@ -1105,7 +1095,7 @@
     </row>
     <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>15</v>
@@ -1121,7 +1111,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
@@ -1132,7 +1122,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -1143,7 +1133,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -1154,7 +1144,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -1165,7 +1155,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -1176,7 +1166,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -1187,7 +1177,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -1198,7 +1188,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -1209,7 +1199,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -1220,7 +1210,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -1231,7 +1221,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -1242,7 +1232,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -1254,7 +1244,7 @@
     <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="37" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="19">
         <f>16/33 * 100</f>
@@ -1264,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE985B-403C-4006-950C-0CF4BB2E8CCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49E496-E9E3-42E3-BCB9-950A5080EE05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>STORED PROCEDURES</t>
   </si>
@@ -144,12 +144,6 @@
     <t>add mod privileges</t>
   </si>
   <si>
-    <t>(mod) accept member</t>
-  </si>
-  <si>
-    <t>(mod) decline member</t>
-  </si>
-  <si>
     <t>(mod) kick member</t>
   </si>
   <si>
@@ -180,7 +174,25 @@
     <t>edit user password</t>
   </si>
   <si>
-    <t>23% COMPLETE</t>
+    <t>(mod) accept member - Private group</t>
+  </si>
+  <si>
+    <t>(mod) decline member - private group</t>
+  </si>
+  <si>
+    <t>get group moderators</t>
+  </si>
+  <si>
+    <t>&gt; Needs testing</t>
+  </si>
+  <si>
+    <t>set group admin</t>
+  </si>
+  <si>
+    <t>(admin) add group moderator</t>
+  </si>
+  <si>
+    <t>(admin) Remove group moderator</t>
   </si>
 </sst>
 </file>
@@ -727,18 +739,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.41796875" customWidth="1"/>
+    <col min="1" max="1" width="31.5234375" customWidth="1"/>
     <col min="2" max="2" width="18.05078125" customWidth="1"/>
     <col min="3" max="3" width="13.26171875" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" customWidth="1"/>
+    <col min="4" max="4" width="16.62890625" customWidth="1"/>
     <col min="5" max="5" width="23.578125" customWidth="1"/>
     <col min="6" max="6" width="24.26171875" customWidth="1"/>
   </cols>
@@ -765,8 +777,8 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
@@ -780,8 +792,8 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>4</v>
@@ -795,8 +807,11 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
@@ -810,8 +825,8 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -821,8 +836,8 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -832,8 +847,8 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>24</v>
@@ -850,8 +865,8 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
@@ -870,8 +885,8 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>25</v>
@@ -890,8 +905,8 @@
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="17"/>
@@ -906,8 +921,8 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -920,8 +935,8 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="2"/>
@@ -936,14 +951,14 @@
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -956,8 +971,8 @@
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="2"/>
@@ -972,8 +987,8 @@
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="17"/>
@@ -988,8 +1003,8 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="2"/>
@@ -1004,8 +1019,8 @@
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17"/>
@@ -1017,11 +1032,11 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="2"/>
@@ -1033,11 +1048,11 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="2"/>
@@ -1144,7 +1159,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -1155,7 +1170,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -1166,7 +1181,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -1177,7 +1192,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -1188,7 +1203,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -1199,7 +1214,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -1210,7 +1225,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -1221,7 +1236,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -1232,29 +1247,74 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="37" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="19">
-        <f>16/33 * 100</f>
-        <v>48.484848484848484</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0</v>
-      </c>
-      <c r="D37" s="20" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>49</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="19">
+        <f>21/38 * 100</f>
+        <v>55.26315789473685</v>
+      </c>
+      <c r="C40" s="19">
+        <f>(21/38) * 100</f>
+        <v>55.26315789473685</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(B40+C40)/2</f>
+        <v>55.26315789473685</v>
       </c>
     </row>
   </sheetData>

--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A49E496-E9E3-42E3-BCB9-950A5080EE05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E577CB2-451F-45B2-8FAC-55000D7AF4F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>STORED PROCEDURES</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>(admin) Remove group moderator</t>
+  </si>
+  <si>
+    <t>get distance between locations</t>
   </si>
 </sst>
 </file>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -750,7 +753,7 @@
     <col min="1" max="1" width="31.5234375" customWidth="1"/>
     <col min="2" max="2" width="18.05078125" customWidth="1"/>
     <col min="3" max="3" width="13.26171875" customWidth="1"/>
-    <col min="4" max="4" width="16.62890625" customWidth="1"/>
+    <col min="4" max="4" width="49.5234375" customWidth="1"/>
     <col min="5" max="5" width="23.578125" customWidth="1"/>
     <col min="6" max="6" width="24.26171875" customWidth="1"/>
   </cols>
@@ -1064,11 +1067,11 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="2"/>
@@ -1080,11 +1083,11 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="2"/>
@@ -1096,11 +1099,11 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="2"/>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -1159,7 +1162,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -1214,7 +1217,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>15</v>
@@ -1269,52 +1272,64 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="18" t="s">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="19">
-        <f>21/38 * 100</f>
-        <v>55.26315789473685</v>
-      </c>
-      <c r="C40" s="19">
-        <f>(21/38) * 100</f>
-        <v>55.26315789473685</v>
-      </c>
-      <c r="D40" s="20">
-        <f>(B40+C40)/2</f>
-        <v>55.26315789473685</v>
+      <c r="B43" s="19">
+        <f>24/38 * 100</f>
+        <v>63.157894736842103</v>
+      </c>
+      <c r="C43" s="19">
+        <f>(24/38) * 100</f>
+        <v>63.157894736842103</v>
+      </c>
+      <c r="D43" s="20">
+        <f>(B43+C43)/2</f>
+        <v>63.157894736842103</v>
       </c>
     </row>
   </sheetData>

--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E577CB2-451F-45B2-8FAC-55000D7AF4F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2329E41-DD83-4011-8DB7-189976301AE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>STORED PROCEDURES</t>
   </si>
@@ -138,12 +138,6 @@
     <t>send direct message</t>
   </si>
   <si>
-    <t>get direct messages</t>
-  </si>
-  <si>
-    <t>add mod privileges</t>
-  </si>
-  <si>
     <t>(mod) kick member</t>
   </si>
   <si>
@@ -195,7 +189,46 @@
     <t>(admin) Remove group moderator</t>
   </si>
   <si>
-    <t>get distance between locations</t>
+    <t>join group</t>
+  </si>
+  <si>
+    <t>leave group</t>
+  </si>
+  <si>
+    <t>get direct messages (single convo)</t>
+  </si>
+  <si>
+    <t>get direct messages list (list of convos)</t>
+  </si>
+  <si>
+    <t>get post likers (users)</t>
+  </si>
+  <si>
+    <t>get post likes (count)</t>
+  </si>
+  <si>
+    <t>get rsvped users</t>
+  </si>
+  <si>
+    <t>get group message by id</t>
+  </si>
+  <si>
+    <t>get group event by id</t>
+  </si>
+  <si>
+    <t>get user by id</t>
+  </si>
+  <si>
+    <t>get location by id</t>
+  </si>
+  <si>
+    <t>get direct message by id</t>
+  </si>
+  <si>
+    <t>consolidated with unlike</t>
+  </si>
+  <si>
+    <t>consolidated with like</t>
   </si>
 </sst>
 </file>
@@ -742,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -814,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
@@ -958,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1129,207 +1162,311 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="43" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="19">
-        <f>24/38 * 100</f>
-        <v>63.157894736842103</v>
-      </c>
-      <c r="C43" s="19">
-        <f>(24/38) * 100</f>
-        <v>63.157894736842103</v>
-      </c>
-      <c r="D43" s="20">
-        <f>(B43+C43)/2</f>
-        <v>63.157894736842103</v>
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="19">
+        <f>47/48 * 100</f>
+        <v>97.916666666666657</v>
+      </c>
+      <c r="C50" s="19">
+        <f>(47/48) * 100</f>
+        <v>97.916666666666657</v>
+      </c>
+      <c r="D50" s="20">
+        <f>(B50+C50)/2</f>
+        <v>97.916666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/hobi api docs.xlsx
+++ b/hobi api docs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodge\Desktop\hobi-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2329E41-DD83-4011-8DB7-189976301AE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B913245-78DA-44F5-AD6F-8C4699E3E9C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
+    <workbookView xWindow="2562" yWindow="2562" windowWidth="17280" windowHeight="8994" xr2:uid="{0F4B7B1A-6694-4032-A35B-9BC2F00461DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -308,17 +308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -439,28 +428,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D0841-E701-441C-B983-07B370312B6E}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -795,16 +783,16 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -816,10 +804,10 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -831,10 +819,10 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
@@ -849,10 +837,10 @@
       <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -886,13 +874,13 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -904,7 +892,7 @@
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -912,7 +900,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -924,15 +912,15 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -944,11 +932,11 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -962,7 +950,7 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -974,11 +962,11 @@
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -990,15 +978,15 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -1010,11 +998,11 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -1026,11 +1014,11 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -1042,11 +1030,11 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -1058,11 +1046,11 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
@@ -1074,11 +1062,11 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
@@ -1090,11 +1078,11 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
@@ -1106,11 +1094,11 @@
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
@@ -1122,11 +1110,11 @@
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
@@ -1138,27 +1126,27 @@
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
@@ -1453,18 +1441,18 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <f>47/48 * 100</f>
         <v>97.916666666666657</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <f>(47/48) * 100</f>
         <v>97.916666666666657</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <f>(B50+C50)/2</f>
         <v>97.916666666666657</v>
       </c>
